--- a/Staz_timesheet.xlsx
+++ b/Staz_timesheet.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23120"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -9,7 +9,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mwilk/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{701244E5-4D9D-4F31-8D93-8A17063962BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4EA0B3C0-CB64-437E-B19B-C8E9982A5FBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{ECB5B274-4C85-A246-9F39-27C65DC5E6A5}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
   <si>
     <t>Data</t>
   </si>
@@ -163,6 +163,15 @@
   </si>
   <si>
     <t xml:space="preserve">Sprzątanie w kodzie </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Szukanie informacji dotyczących kodów kreskowych </t>
+  </si>
+  <si>
+    <t>Obsługa błędów przy dodawaniu produktu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tworzenie recyclerView z kategoriami </t>
   </si>
 </sst>
 </file>
@@ -549,16 +558,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776B16D4-4A4E-B64F-A019-C52527AB2E2A}">
-  <dimension ref="A1:C55"/>
+  <dimension ref="A1:C60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
   <cols>
     <col min="1" max="1" width="16" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.875" style="1"/>
+    <col min="2" max="2" width="13.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="72" customWidth="1"/>
   </cols>
   <sheetData>
@@ -995,8 +1004,40 @@
         <v>42</v>
       </c>
     </row>
+    <row r="56" spans="1:3" ht="15.75"/>
+    <row r="57" spans="1:3" ht="15.75">
+      <c r="A57" s="5">
+        <v>44035</v>
+      </c>
+      <c r="B57" s="1">
+        <v>3</v>
+      </c>
+      <c r="C57" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="15.95" customHeight="1">
+      <c r="A58" s="5"/>
+      <c r="B58" s="1">
+        <v>2</v>
+      </c>
+      <c r="C58" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="15.95" customHeight="1">
+      <c r="A59" s="5"/>
+      <c r="B59" s="1">
+        <v>3</v>
+      </c>
+      <c r="C59" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="15.75"/>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A57:A59"/>
     <mergeCell ref="A29:A33"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A7:A10"/>
@@ -1014,21 +1055,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010000FFFA20196C5244A198B956263BCCC6" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3e665c9909af2d00025ac938ed956f4a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="65d88d86-0354-4735-9d62-80a4ac60412a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1d6152cd73a56170a76ea3621d94087c" ns2:_="">
     <xsd:import namespace="65d88d86-0354-4735-9d62-80a4ac60412a"/>
@@ -1160,14 +1186,29 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DCBFDAD8-0F07-4DA1-82D3-259155DCA012}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EE0AA63-4C71-4853-AA83-FB6609B135DC}"/>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89A3B923-F919-4A22-94D3-DBAAFD20A330}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DCBFDAD8-0F07-4DA1-82D3-259155DCA012}"/>
 </file>